--- a/Prisma/Data Analysis/prisma.xlsx
+++ b/Prisma/Data Analysis/prisma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="58">
   <si>
     <t>Calcolo di alpha</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Alpha1</t>
   </si>
   <si>
-    <t>Alpha2</t>
-  </si>
-  <si>
-    <t>Alpha3</t>
-  </si>
-  <si>
     <t>errori</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
   </si>
   <si>
     <t>Lambda</t>
-  </si>
-  <si>
-    <t>Errore deg</t>
   </si>
   <si>
     <t>Errore rad</t>
@@ -116,12 +107,6 @@
   </si>
   <si>
     <t>Rosso</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Delta m</t>
   </si>
   <si>
     <t>Error</t>
@@ -198,6 +183,24 @@
   <si>
     <t>a+b/lambda^2</t>
   </si>
+  <si>
+    <t>Aloha</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gradi</t>
+  </si>
+  <si>
+    <t>primi</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +241,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -263,10 +272,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -370,10 +395,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Retta!$B$6:$B$14</c:f>
+              <c:f>Retta!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.0465600000000002E-7</c:v>
                 </c:pt>
@@ -387,18 +412,15 @@
                   <c:v>4.9160700000000007E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9703700000000003E-7</c:v>
+                  <c:v>5.4607399999999997E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4607399999999997E-7</c:v>
+                  <c:v>5.7696000000000011E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7696000000000011E-7</c:v>
+                  <c:v>5.78966E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.78966E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>6.2344000000000008E-7</c:v>
                 </c:pt>
               </c:numCache>
@@ -406,36 +428,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Retta!$C$6:$C$14</c:f>
+              <c:f>Retta!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.8433563805323061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.841280591554028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.8263380485735974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.8059794332799115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.7930374772723283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7874411048540997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.7869606567205927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.7729534863108829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,10 +697,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Retta!$E$6:$E$14</c:f>
+              <c:f>Retta!$E$6:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6107001568290.5088</c:v>
                 </c:pt>
@@ -695,18 +714,15 @@
                   <c:v>4137746534664.793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4047832764251.9629</c:v>
+                  <c:v>3353489892609.0767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3353489892609.0767</c:v>
+                  <c:v>3004059912471.0176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3004059912471.0176</c:v>
+                  <c:v>2983279056602.104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2983279056602.104</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>2572827526254.4072</c:v>
                 </c:pt>
               </c:numCache>
@@ -714,36 +730,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Retta!$F$6:$F$14</c:f>
+              <c:f>Retta!$F$6:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.29429398579499583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3893434.4399053673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4062115.8477125377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4099458.1614038642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4172973.6199129056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4177433.4646090115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4355880.824123607</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3736161.7753090831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,10 +798,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Retta!$E$6:$E$14</c:f>
+              <c:f>Retta!$E$6:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6107001568290.5088</c:v>
                 </c:pt>
@@ -802,18 +815,15 @@
                   <c:v>4137746534664.793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4047832764251.9629</c:v>
+                  <c:v>3353489892609.0767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3353489892609.0767</c:v>
+                  <c:v>3004059912471.0176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3004059912471.0176</c:v>
+                  <c:v>2983279056602.104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2983279056602.104</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>2572827526254.4072</c:v>
                 </c:pt>
               </c:numCache>
@@ -821,36 +831,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Retta!$B$27:$B$35</c:f>
+              <c:f>Retta!$B$26:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2388522.8470357442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2443643.7191030872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2886239.0789181949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3551924.2994532683</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4015249.4152234816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4221686.5396534046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4233963.5060633169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4476451.0957353944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,7 +2176,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2194,16 +2204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>39372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561314</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>134622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2528,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,12 +2550,12 @@
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2565,109 +2575,146 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>354</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
       <c r="D4">
         <f>(PI()*(B4+C4/60))/180</f>
-        <v>0</v>
+        <v>6.1860286454852362</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
-        <f>PI()-(ABS(D5-D4))</f>
-        <v>3.1415926535897931</v>
+        <f>PI()-ABS(PI()-(ABS(D5-D4)))</f>
+        <v>1.0466157747792657</v>
       </c>
       <c r="G4">
-        <f>DEGREES(F4)</f>
-        <v>180</v>
+        <f>INT(DEGREES(F4))</f>
+        <v>59</v>
       </c>
       <c r="H4">
         <f>60*(DEGREES(F4)-INT(DEGREES(F4)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57.999999999997982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
       <c r="D5">
         <f>(PI()*(B5+C5/60))/180</f>
-        <v>0</v>
+        <v>0.94945911308491526</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5">
         <f>B8*SQRT(2)</f>
-        <v>2.4682682989768702E-2</v>
+        <v>4.1137804982947838E-4</v>
       </c>
       <c r="G5">
         <f>INT(DEGREES(F5))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f>60*(DEGREES(F5)-INT(DEGREES(F5)))</f>
-        <v>24.85281374238571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <f>F5</f>
-        <v>2.4682682989768702E-2</v>
+        <v>4.1137804982947838E-4</v>
       </c>
       <c r="M6">
         <f>F13</f>
-        <v>2.4682682989768702E-2</v>
+        <v>4.1137804982947838E-4</v>
       </c>
       <c r="N6">
         <f>F21</f>
-        <v>2.4682682989768702E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="O6">
+        <f>N6</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="P6">
+        <f>O6</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="Q6">
+        <f>P6</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7">
         <f>F4</f>
-        <v>3.1415926535897931</v>
+        <v>1.0466157747792657</v>
       </c>
       <c r="M7">
         <f>F12</f>
-        <v>3.1415926535897931</v>
+        <v>1.0463248865705994</v>
       </c>
       <c r="N7">
         <f>F20</f>
-        <v>3.1415926535897931</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0458885542576013</v>
+      </c>
+      <c r="O7">
+        <f>K11</f>
+        <v>1.0463248865706003</v>
+      </c>
+      <c r="P7">
+        <f>K12</f>
+        <v>1.0463248865706003</v>
+      </c>
+      <c r="Q7">
+        <f>K13</f>
+        <v>1.0467612188835984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <f>B7*PI()/180</f>
-        <v>1.7453292519943295E-2</v>
+        <v>2.9088820866572158E-4</v>
       </c>
       <c r="J8">
         <f>F5</f>
-        <v>2.4682682989768702E-2</v>
+        <v>4.1137804982947838E-4</v>
       </c>
       <c r="K8">
         <f>F4</f>
-        <v>3.1415926535897931</v>
+        <v>1.0466157747792657</v>
       </c>
       <c r="L8">
         <f>($K8-L$7)/(SQRT($J8^2+L$6))</f>
@@ -2675,226 +2722,858 @@
       </c>
       <c r="M8">
         <f>($K8-M$7)/(SQRT($J8^2+M$6))</f>
-        <v>0</v>
+        <v>1.4338913618557037E-2</v>
       </c>
       <c r="N8">
         <f>($K8-N$7)/(SQRT($J8^2+N$6))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.5847284046326922E-2</v>
+      </c>
+      <c r="O8" s="6">
+        <f>($K8-O$7)/(SQRT($J8^2+O$6))</f>
+        <v>1.4338913618513256E-2</v>
+      </c>
+      <c r="P8" s="6">
+        <f>($K8-P$7)/(SQRT($J8^2+P$6))</f>
+        <v>1.4338913618513256E-2</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>($K8-Q$7)/(SQRT($J8^2+Q$6))</f>
+        <v>-7.1694568092566281E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J9">
         <f>F13</f>
-        <v>2.4682682989768702E-2</v>
+        <v>4.1137804982947838E-4</v>
       </c>
       <c r="K9">
         <f>F12</f>
-        <v>3.1415926535897931</v>
+        <v>1.0463248865705994</v>
       </c>
       <c r="L9">
         <f>($K9-L$7)/(SQRT($J9^2+L$6))</f>
-        <v>0</v>
+        <v>-1.4338913618557037E-2</v>
       </c>
       <c r="M9">
         <f>($K9-M$7)/(SQRT($J9^2+M$6))</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="L9:N10" si="0">($K9-N$7)/(SQRT($J9^2+N$6))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L9:N13" si="0">($K9-N$7)/(SQRT($J9^2+N$6))</f>
+        <v>2.1508370427769884E-2</v>
+      </c>
+      <c r="O9" s="6">
+        <f>($K9-O$7)/(SQRT($J9^2+O$6))</f>
+        <v>-4.3781470883052063E-14</v>
+      </c>
+      <c r="P9" s="6">
+        <f>($K9-P$7)/(SQRT($J9^2+P$6))</f>
+        <v>-4.3781470883052063E-14</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" ref="O9:Q13" si="1">($K9-Q$7)/(SQRT($J9^2+Q$6))</f>
+        <v>-2.1508370427813665E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J10">
         <f>F21</f>
-        <v>2.4682682989768702E-2</v>
+        <v>4.1137804982947838E-4</v>
       </c>
       <c r="K10">
         <f>F20</f>
-        <v>3.1415926535897931</v>
+        <v>1.0458885542576013</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.5847284046326922E-2</v>
       </c>
       <c r="M10">
         <f>($K10-M$7)/(SQRT($J10^2+M$6))</f>
-        <v>0</v>
+        <v>-2.1508370427769884E-2</v>
       </c>
       <c r="N10">
         <f>($K10-N$7)/(SQRT($J10^2+N$6))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="O10" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.1508370427813665E-2</v>
+      </c>
+      <c r="P10" s="6">
+        <f>($K10-P$7)/(SQRT($J10^2+P$6))</f>
+        <v>-2.1508370427813665E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>($K10-Q$7)/(SQRT($J10^2+Q$6))</f>
+        <v>-4.3016740855583546E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="J11">
+        <f>J10</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="K11">
+        <f>F28</f>
+        <v>1.0463248865706003</v>
+      </c>
+      <c r="L11" s="6">
+        <f>($K11-L$7)/(SQRT($J11^2+L$6))</f>
+        <v>-1.4338913618513256E-2</v>
+      </c>
+      <c r="M11" s="6">
+        <f>($K11-M$7)/(SQRT($J11^2+M$6))</f>
+        <v>4.3781470883052063E-14</v>
+      </c>
+      <c r="N11" s="6">
+        <f>($K11-N$7)/(SQRT($J11^2+N$6))</f>
+        <v>2.1508370427813665E-2</v>
+      </c>
+      <c r="O11" s="6">
+        <f>($K11-O$7)/(SQRT($J11^2+O$6))</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>($K11-P$7)/(SQRT($J11^2+P$6))</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>($K11-Q$7)/(SQRT($J11^2+Q$6))</f>
+        <v>-2.1508370427769884E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="B12" s="6">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6">
         <f>(PI()*(B12+C12/60))/180</f>
+        <v>0.62424609579663848</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <f>ABS(PI()-(ABS(D13-D12)))</f>
+        <v>1.0463248865705994</v>
+      </c>
+      <c r="G12" s="6">
+        <f>INT(DEGREES(F12))</f>
+        <v>59</v>
+      </c>
+      <c r="H12" s="6">
+        <f>60*(DEGREES(F12)-INT(DEGREES(F12)))</f>
+        <v>56.999999999995907</v>
+      </c>
+      <c r="J12">
+        <f>J11</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="K12" s="6">
+        <f>F36</f>
+        <v>1.0463248865706003</v>
+      </c>
+      <c r="L12" s="6">
+        <f>($K12-L$7)/(SQRT($J12^2+L$6))</f>
+        <v>-1.4338913618513256E-2</v>
+      </c>
+      <c r="M12" s="6">
+        <f>($K12-M$7)/(SQRT($J12^2+M$6))</f>
+        <v>4.3781470883052063E-14</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1508370427813665E-2</v>
+      </c>
+      <c r="O12" s="6">
+        <f>($K12-O$7)/(SQRT($J12^2+O$6))</f>
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <f>PI()-(ABS(D13-D12))</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="G12">
-        <f>DEGREES(F12)</f>
-        <v>180</v>
-      </c>
-      <c r="H12">
-        <f>60*(DEGREES(F12)-INT(DEGREES(F12)))</f>
+      <c r="P12" s="6">
+        <f>($K12-P$7)/(SQRT($J12^2+P$6))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="Q12" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.1508370427769884E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="B13" s="6">
+        <v>275</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6">
         <f>(PI()*(B13+C13/60))/180</f>
+        <v>4.812163635957031</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <f>B16*SQRT(2)</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="G13" s="6">
+        <f>INT(DEGREES(F13))</f>
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <f>B16*SQRT(2)</f>
-        <v>2.4682682989768702E-2</v>
-      </c>
-      <c r="G13">
-        <f>INT(DEGREES(F13))</f>
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <f>60*(DEGREES(F13)-INT(DEGREES(F13)))</f>
-        <v>24.85281374238571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J13">
+        <f>J12</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="K13" s="6">
+        <f>F44</f>
+        <v>1.0467612188835984</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="0"/>
+        <v>7.1694568092566281E-3</v>
+      </c>
+      <c r="M13" s="6">
+        <f>($K13-M$7)/(SQRT($J13^2+M$6))</f>
+        <v>2.1508370427813665E-2</v>
+      </c>
+      <c r="N13" s="6">
+        <f>($K13-N$7)/(SQRT($J13^2+N$6))</f>
+        <v>4.3016740855583546E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1508370427769884E-2</v>
+      </c>
+      <c r="P13" s="6">
+        <f>($K13-P$7)/(SQRT($J13^2+P$6))</f>
+        <v>2.1508370427769884E-2</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>($K13-Q$7)/(SQRT($J13^2+Q$6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16">
         <f>B15*PI()/180</f>
-        <v>1.7453292519943295E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+        <v>2.9088820866572158E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE(K8:K13)</f>
+        <v>1.0463733679387108</v>
+      </c>
+      <c r="L19" s="6">
+        <f>INT(DEGREES(K19))</f>
+        <v>59</v>
+      </c>
+      <c r="M19" s="6">
+        <f>60*(DEGREES(K19)-INT(DEGREES(K19)))</f>
+        <v>57.166666666664412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="B20" s="6">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6">
         <f>(PI()*(B20+C20/60))/180</f>
+        <v>0.52999831618894477</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6">
+        <f>ABS(PI()-(ABS(D21-D20)))</f>
+        <v>1.0458885542576013</v>
+      </c>
+      <c r="G20" s="6">
+        <f>INT(DEGREES(F20))</f>
+        <v>59</v>
+      </c>
+      <c r="H20" s="6">
+        <f>60*(DEGREES(F20)-INT(DEGREES(F20)))</f>
+        <v>55.499999999997698</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <f>J13</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="L20" s="6">
+        <f>DEGREES(K20)</f>
+        <v>2.3570226039551587E-2</v>
+      </c>
+      <c r="M20" s="6">
+        <f>60*(DEGREES(K20)-INT(DEGREES(K20)))</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6">
+        <v>270</v>
+      </c>
+      <c r="C21" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="D21" s="6">
+        <f>(PI()*(B21+C21/60))/180</f>
+        <v>4.7174795240363396</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6">
+        <f>B24*SQRT(2)</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="G21" s="6">
+        <f>INT(DEGREES(F21))</f>
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <f>PI()-(ABS(D21-D20))</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="G20">
-        <f>DEGREES(F20)</f>
-        <v>180</v>
-      </c>
-      <c r="H20">
-        <f>60*(DEGREES(F20)-INT(DEGREES(F20)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <f>(PI()*(B21+C21/60))/180</f>
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <f>B24*SQRT(2)</f>
-        <v>2.4682682989768702E-2</v>
-      </c>
-      <c r="G21">
-        <f>INT(DEGREES(F21))</f>
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <f>60*(DEGREES(F21)-INT(DEGREES(F21)))</f>
-        <v>24.85281374238571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24">
         <f>B23*PI()/180</f>
-        <v>1.7453292519943295E-2</v>
-      </c>
+        <v>2.9088820866572158E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6">
+        <v>48</v>
+      </c>
+      <c r="D28" s="6">
+        <f>(PI()*(B28+C28/60))/180</f>
+        <v>0.45029494701453704</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6">
+        <f>ABS(PI()-(ABS(D29-D28)))</f>
+        <v>1.0463248865706003</v>
+      </c>
+      <c r="G28" s="6">
+        <f>INT(DEGREES(F28))</f>
+        <v>59</v>
+      </c>
+      <c r="H28" s="6">
+        <f>60*(DEGREES(F28)-INT(DEGREES(F28)))</f>
+        <v>56.999999999999318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="6">
+        <v>265</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6">
+        <f>(PI()*(B29+C29/60))/180</f>
+        <v>4.6382124871749308</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6">
+        <f>B32*SQRT(2)</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="G29" s="6">
+        <f>INT(DEGREES(F29))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <f>60*(DEGREES(F29)-INT(DEGREES(F29)))</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="6">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6">
+        <f>B31*PI()/180</f>
+        <v>2.9088820866572158E-4</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6">
+        <v>25</v>
+      </c>
+      <c r="C36" s="6">
+        <v>41</v>
+      </c>
+      <c r="D36" s="6">
+        <f>(PI()*(B36+C36/60))/180</f>
+        <v>0.44825872955387691</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6">
+        <f>ABS(PI()-(ABS(D37-D36)))</f>
+        <v>1.0463248865706003</v>
+      </c>
+      <c r="G36" s="6">
+        <f>INT(DEGREES(F36))</f>
+        <v>59</v>
+      </c>
+      <c r="H36" s="6">
+        <f>60*(DEGREES(F36)-INT(DEGREES(F36)))</f>
+        <v>56.999999999999318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6">
+        <v>265</v>
+      </c>
+      <c r="C37" s="6">
+        <v>38</v>
+      </c>
+      <c r="D37" s="6">
+        <f>(PI()*(B37+C37/60))/180</f>
+        <v>4.6361762697142703</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="6">
+        <f>B40*SQRT(2)</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="G37" s="6">
+        <f>INT(DEGREES(F37))</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <f>60*(DEGREES(F37)-INT(DEGREES(F37)))</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="6">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="6">
+        <f>B39*PI()/180</f>
+        <v>2.9088820866572158E-4</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="6">
+        <v>30</v>
+      </c>
+      <c r="C44" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="D44" s="6">
+        <f>(PI()*(B44+C44/60))/180</f>
+        <v>0.53508885984059484</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="6">
+        <f>ABS(PI()-(ABS(D45-D44)))</f>
+        <v>1.0467612188835984</v>
+      </c>
+      <c r="G44" s="6">
+        <f>INT(DEGREES(F44))</f>
+        <v>59</v>
+      </c>
+      <c r="H44" s="6">
+        <f>60*(DEGREES(F44)-INT(DEGREES(F44)))</f>
+        <v>58.499999999997527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="6">
+        <v>270</v>
+      </c>
+      <c r="C45" s="6">
+        <v>38</v>
+      </c>
+      <c r="D45" s="6">
+        <f>(PI()*(B45+C45/60))/180</f>
+        <v>4.7234427323139867</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="6">
+        <f>B48*SQRT(2)</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="G45" s="6">
+        <f>INT(DEGREES(F45))</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <f>60*(DEGREES(F45)-INT(DEGREES(F45)))</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="6">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="6">
+        <f>B47*PI()/180</f>
+        <v>2.9088820866572158E-4</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2903,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,36 +3593,70 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3">
+        <f>'Calcolo alpha'!K19</f>
+        <v>1.0463733679387108</v>
+      </c>
+      <c r="F3" s="6">
+        <f>'Calcolo alpha'!L19</f>
+        <v>59</v>
+      </c>
+      <c r="G3" s="6">
+        <f>'Calcolo alpha'!M19</f>
+        <v>57.166666666664412</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <f>RADIANS(B3/60)</f>
-        <v>0</v>
+        <v>2.9088820866572158E-4</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E4" s="6">
+        <f>'Calcolo alpha'!K20</f>
+        <v>4.1137804982947838E-4</v>
+      </c>
+      <c r="F4" s="6">
+        <f>'Calcolo alpha'!L20</f>
+        <v>2.3570226039551587E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <f>'Calcolo alpha'!M20</f>
+        <v>1.4142135623730951</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2959,30 +3672,41 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="7">
+        <v>178</v>
+      </c>
+      <c r="C7" s="7">
+        <v>41</v>
+      </c>
       <c r="D7" s="4">
         <f>RADIANS(B7+C7/60)</f>
-        <v>0</v>
+        <v>3.1186124851052011</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4">
         <f>404.656*0.000000001</f>
         <v>4.0465600000000002E-7</v>
       </c>
       <c r="C11" s="3"/>
+      <c r="F11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2995,822 +3719,2176 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="M12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
         <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="10">
+        <v>104</v>
+      </c>
+      <c r="C13" s="10">
+        <v>29</v>
       </c>
       <c r="D13">
         <f>RADIANS(B13+C13/60)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13">
-        <f>ABS(F13-$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
+        <v>1.8235781801254087</v>
+      </c>
+      <c r="F13" s="9">
         <f>INT(DEGREES(H13))</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
+        <v>74</v>
+      </c>
+      <c r="G13" s="9">
         <f>60*(DEGREES(H13)-INT(DEGREES(H13)))</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="e">
-        <f>SIN((H13+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="5" t="e">
-        <f>(COS((H13+$E$3)/2)/(2*SIN($E$3/2))*H14)^2+((0.5*COS((H13+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H13+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" t="e">
+        <v>11.999999999999318</v>
+      </c>
+      <c r="H13" s="9">
+        <f>ABS(D13-$D$7)</f>
+        <v>1.2950343049797923</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="M13" s="5">
+        <f>SIN((H19+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.8433563805323061</v>
+      </c>
+      <c r="N13" s="5">
+        <f>(COS((H19+$E$3)/2)/(2*SIN($E$3/2))*I19)^2+((0.5*COS((H19+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H19+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.7316268701700868E-7</v>
+      </c>
+      <c r="O13">
         <f>SQRT(N13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5">
+        <v>5.2264967905568324E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>104</v>
+      </c>
+      <c r="C14" s="10">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D18" si="0">RADIANS(B14+C14/60)</f>
+        <v>1.8238690683340744</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F18" si="1">INT(DEGREES(H14))</f>
+        <v>74</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" ref="G14:G18" si="2">60*(DEGREES(H14)-INT(DEGREES(H14)))</f>
+        <v>10.999999999999375</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" ref="H14:H18" si="3">ABS(D14-$D$7)</f>
+        <v>1.2947434167711267</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>104</v>
+      </c>
+      <c r="C15" s="10">
+        <v>31.5</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8243054006470731</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="2"/>
+        <v>9.4999999999990337</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2943070844581279</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>252</v>
+      </c>
+      <c r="C16" s="10">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4136467900849938</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="2"/>
+        <v>12.000000000001023</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2950343049797928</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>252</v>
+      </c>
+      <c r="C17" s="10">
+        <v>54</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4139376782936592</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="2"/>
+        <v>13.000000000000114</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2953251931884582</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>252</v>
+      </c>
+      <c r="C18" s="10">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4142285665023246</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="2"/>
+        <v>13.999999999998352</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2956160813971236</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <f>AVERAGE(H13:H18)</f>
+        <v>1.295010064295737</v>
+      </c>
+      <c r="I19">
+        <f>_xlfn.STDEV.P(H13:H18)</f>
+        <v>4.1493367385509692E-4</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
         <f>407.783*0.000000001</f>
         <v>4.0778300000000005E-7</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
-        <f>RADIANS(B19+C19/60)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="5">
-        <f>ABS(F19-$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f>INT(DEGREES(H19))</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <f>60*(DEGREES(H19)-INT(DEGREES(H19)))</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="e">
-        <f>SIN((H19+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="5" t="e">
-        <f>(COS((H19+$E$3)/2)/(2*SIN($E$3/2))*H20)^2+((0.5*COS((H19+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H19+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="5" t="e">
-        <f>SQRT(N19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11">
+        <v>104</v>
+      </c>
+      <c r="C24" s="11">
+        <v>47</v>
+      </c>
+      <c r="D24" s="9">
+        <f>RADIANS(B24+C24/60)</f>
+        <v>1.8288141678813916</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
+        <f>INT(DEGREES(H24))</f>
+        <v>73</v>
+      </c>
+      <c r="G24" s="9">
+        <f>60*(DEGREES(H24)-INT(DEGREES(H24)))</f>
+        <v>53.999999999999488</v>
+      </c>
+      <c r="H24" s="9">
+        <f>ABS(D24-$D$7)</f>
+        <v>1.2897983172238094</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9">
+        <f>SIN((H30+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.841280591554028</v>
+      </c>
+      <c r="N24" s="9">
+        <f>(COS((H30+$E$3)/2)/(2*SIN($E$3/2))*I30)^2+((0.5*COS((H30+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H30+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.5684264508234677E-7</v>
+      </c>
+      <c r="O24" s="9">
+        <f>SQRT(N24)</f>
+        <v>5.0679645330482218E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>104</v>
+      </c>
+      <c r="C25" s="11">
+        <v>49</v>
+      </c>
+      <c r="D25" s="9">
+        <f>RADIANS(B25+C25/60)</f>
+        <v>1.8293959442987231</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" ref="F25:F29" si="4">INT(DEGREES(H25))</f>
+        <v>73</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" ref="G25:G29" si="5">60*(DEGREES(H25)-INT(DEGREES(H25)))</f>
+        <v>51.999999999999602</v>
+      </c>
+      <c r="H25" s="9">
+        <f>ABS(D25-$D$7)</f>
+        <v>1.289216540806478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>104</v>
+      </c>
+      <c r="C26" s="11">
+        <v>47</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D25:D29" si="6">RADIANS(B26+C26/60)</f>
+        <v>1.8288141678813916</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="5"/>
+        <v>53.999999999999488</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" ref="H25:H29" si="7">ABS(D26-$D$7)</f>
+        <v>1.2897983172238094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>252</v>
+      </c>
+      <c r="C27" s="11">
+        <v>34</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="6"/>
+        <v>4.4081199141203449</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="5"/>
+        <v>53.000000000000398</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2895074290151438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
+        <v>252</v>
+      </c>
+      <c r="C28" s="12">
+        <v>36</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="6"/>
+        <v>4.4087016905376766</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="5"/>
+        <v>55.000000000001137</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2900892054324755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>252</v>
+      </c>
+      <c r="C29" s="11">
+        <v>35</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="6"/>
+        <v>4.4084108023290112</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="5"/>
+        <v>54.000000000002046</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2897983172238101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <f>AVERAGE(H24:H29)</f>
+        <v>1.2897013544875877</v>
+      </c>
+      <c r="I30" s="9">
+        <f>_xlfn.STDEV.P(H24:H29)</f>
+        <v>2.742520332197747E-4</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="5">
         <f>0.000000435833</f>
         <v>4.3583299999999998E-7</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
-        <f>RADIANS(B25+C25/60)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="5">
-        <f>ABS(F25-$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <f>INT(DEGREES(H25))</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <f>60*(DEGREES(H25)-INT(DEGREES(H25)))</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="e">
-        <f>SIN((H25+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="5" t="e">
-        <f>(COS((H25+$E$3)/2)/(2*SIN($E$3/2))*H26)^2+((0.5*COS((H25+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H25+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="5" t="e">
-        <f>SQRT(N25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="B35" s="13">
+        <v>106</v>
+      </c>
+      <c r="C35" s="13">
+        <v>55</v>
+      </c>
+      <c r="D35" s="9">
+        <f>RADIANS(B35+C35/60)</f>
+        <v>1.8660478585906042</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <f>INT(DEGREES(H35))</f>
+        <v>71</v>
+      </c>
+      <c r="G35" s="9">
+        <f>60*(DEGREES(H35)-INT(DEGREES(H35)))</f>
+        <v>45.999999999999091</v>
+      </c>
+      <c r="H35" s="9">
+        <f>ABS(D35-$D$7)</f>
+        <v>1.2525646265145969</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9">
+        <f>SIN((H41+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.8263380485735974</v>
+      </c>
+      <c r="N35" s="9">
+        <f>(COS((H41+$E$3)/2)/(2*SIN($E$3/2))*I41)^2+((0.5*COS((H41+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H41+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.4617712480138173E-7</v>
+      </c>
+      <c r="O35" s="9">
+        <f>SQRT(N35)</f>
+        <v>4.9616239760927241E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13">
+        <v>106</v>
+      </c>
+      <c r="C36" s="13">
+        <v>56</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" ref="D36:D40" si="8">RADIANS(B36+C36/60)</f>
+        <v>1.8663387467992698</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" ref="F36:F40" si="9">INT(DEGREES(H36))</f>
+        <v>71</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" ref="G36:G40" si="10">60*(DEGREES(H36)-INT(DEGREES(H36)))</f>
+        <v>44.999999999999147</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" ref="H36:H40" si="11">ABS(D36-$D$7)</f>
+        <v>1.2522737383059312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13">
+        <v>106</v>
+      </c>
+      <c r="C37" s="13">
+        <v>57</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="8"/>
+        <v>1.8666296350079354</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="10"/>
+        <v>44.000000000000057</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="11"/>
+        <v>1.2519828500972656</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13">
+        <v>250</v>
+      </c>
+      <c r="C38" s="13">
+        <v>26</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="8"/>
+        <v>4.3708862234111328</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="10"/>
+        <v>45.000000000000853</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="11"/>
+        <v>1.2522737383059317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
+        <v>250</v>
+      </c>
+      <c r="C39" s="14">
+        <v>28</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="8"/>
+        <v>4.3714679998284645</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="10"/>
+        <v>47.000000000001592</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="11"/>
+        <v>1.2528555147232634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13">
+        <v>250</v>
+      </c>
+      <c r="C40" s="13">
+        <v>27</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="8"/>
+        <v>4.3711771116197982</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="10"/>
+        <v>45.999999999999943</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="11"/>
+        <v>1.2525646265145971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
+        <f>AVERAGE(H35:H40)</f>
+        <v>1.2524191824102642</v>
+      </c>
+      <c r="I41" s="9">
+        <f>_xlfn.STDEV.P(H35:H40)</f>
+        <v>2.785042563033684E-4</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="5">
         <f>491.607*0.000000001</f>
         <v>4.9160700000000007E-7</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C45" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5">
-        <f>RADIANS(B31+C31/60)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="5">
-        <f>ABS(F31-$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f>INT(DEGREES(H31))</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <f>60*(DEGREES(H31)-INT(DEGREES(H31)))</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="5" t="e">
-        <f>SIN((H31+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="5" t="e">
-        <f>(COS((H31+$E$3)/2)/(2*SIN($E$3/2))*H32)^2+((0.5*COS((H31+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H31+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="5" t="e">
-        <f>SQRT(N31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="5">
-        <f>497.037*0.000000001</f>
-        <v>4.9703700000000003E-7</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <f>RADIANS(B37+C37/60)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="5">
-        <f>ABS(F37-$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <f>INT(DEGREES(H37))</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="5">
-        <f>60*(DEGREES(H37)-INT(DEGREES(H37)))</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="5" t="e">
-        <f>SIN((H37+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="5" t="e">
-        <f>(COS((H37+$E$3)/2)/(2*SIN($E$3/2))*H38)^2+((0.5*COS((H37+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H37+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="5" t="e">
-        <f>SQRT(N37)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="5">
-        <f>546.074*0.000000001</f>
-        <v>5.4607399999999997E-7</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5">
-        <f>RADIANS(B43+C43/60)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="5">
-        <f>ABS(F43-$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
-        <f>INT(DEGREES(H43))</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
-        <f>60*(DEGREES(H43)-INT(DEGREES(H43)))</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="5" t="e">
-        <f>SIN((H43+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="5" t="e">
-        <f>(COS((H43+$E$3)/2)/(2*SIN($E$3/2))*H44)^2+((0.5*COS((H43+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H43+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O43" s="5" t="e">
-        <f>SQRT(N43)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="5">
-        <f>576.96*0.000000001</f>
-        <v>5.7696000000000011E-7</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5">
-        <f>RADIANS(B49+C49/60)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="5">
-        <f>ABS(F49-$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
-        <f>INT(DEGREES(H49))</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
-        <f>60*(DEGREES(H49)-INT(DEGREES(H49)))</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="5" t="e">
-        <f>SIN((H49+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N49" s="5" t="e">
-        <f>(COS((H49+$E$3)/2)/(2*SIN($E$3/2))*H50)^2+((0.5*COS((H49+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H49+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O49" s="5" t="e">
-        <f>SQRT(N49)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G51" s="5"/>
+      <c r="B46" s="15">
+        <v>109</v>
+      </c>
+      <c r="C46" s="15">
+        <v>43</v>
+      </c>
+      <c r="D46" s="9">
+        <f>RADIANS(B46+C46/60)</f>
+        <v>1.9149170776464453</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9">
+        <f>INT(DEGREES(H46))</f>
+        <v>68</v>
+      </c>
+      <c r="G46" s="9">
+        <f>60*(DEGREES(H46)-INT(DEGREES(H46)))</f>
+        <v>57.999999999999261</v>
+      </c>
+      <c r="H46" s="9">
+        <f>ABS(D46-$D$7)</f>
+        <v>1.2036954074587558</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9">
+        <f>SIN((H52+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.8059794332799115</v>
+      </c>
+      <c r="N46" s="9">
+        <f>(COS((H52+$E$3)/2)/(2*SIN($E$3/2))*I52)^2+((0.5*COS((H52+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H52+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.4393467639575778E-7</v>
+      </c>
+      <c r="O46" s="9">
+        <f>SQRT(N46)</f>
+        <v>4.9389743509736697E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
+        <v>109</v>
+      </c>
+      <c r="C47" s="15">
+        <v>44</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" ref="D47:D51" si="12">RADIANS(B47+C47/60)</f>
+        <v>1.9152079658551109</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" ref="F47:F51" si="13">INT(DEGREES(H47))</f>
+        <v>68</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" ref="G47:G51" si="14">60*(DEGREES(H47)-INT(DEGREES(H47)))</f>
+        <v>57.000000000000171</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" ref="H47:H51" si="15">ABS(D47-$D$7)</f>
+        <v>1.2034045192500902</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="15">
+        <v>109</v>
+      </c>
+      <c r="C48" s="15">
+        <v>42</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="12"/>
+        <v>1.9146261894377796</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="14"/>
+        <v>58.999999999999204</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="15"/>
+        <v>1.2039862956674214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="15">
+        <v>247</v>
+      </c>
+      <c r="C49" s="15">
+        <v>40</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" si="12"/>
+        <v>4.3225987807726227</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" si="14"/>
+        <v>59.000000000000057</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="15"/>
+        <v>1.2039862956674217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="15">
+        <v>247</v>
+      </c>
+      <c r="C50" s="15">
+        <v>41</v>
+      </c>
+      <c r="D50" s="9">
+        <f t="shared" si="12"/>
+        <v>4.322889668981289</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="14"/>
+        <v>1.7053025658242404E-12</v>
+      </c>
+      <c r="H50" s="9">
+        <f t="shared" si="15"/>
+        <v>1.204277183876088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="15">
+        <v>247</v>
+      </c>
+      <c r="C51" s="15">
+        <v>42</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" si="12"/>
+        <v>4.3231805571899544</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="14"/>
+        <v>1.0000000000007958</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" si="15"/>
+        <v>1.2045680720847534</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="5">
-        <f>578.966*0.000000001</f>
-        <v>5.78966E-7</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
+        <f>AVERAGE(H46:H51)</f>
+        <v>1.2039862956674219</v>
+      </c>
+      <c r="I52" s="9">
+        <f>_xlfn.STDEV.P(H46:H51)</f>
+        <v>3.7553506259031696E-4</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B55" s="5">
+        <f>497.037*0.000000001</f>
+        <v>4.9703700000000003E-7</v>
+      </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="5">
-        <f>RADIANS(B55+C55/60)</f>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="16">
+        <v>109</v>
+      </c>
+      <c r="C57" s="16">
+        <v>43</v>
+      </c>
+      <c r="D57" s="9">
+        <f>RADIANS(B57+C57/60)</f>
+        <v>1.9149170776464453</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9">
+        <f>INT(DEGREES(H57))</f>
+        <v>68</v>
+      </c>
+      <c r="G57" s="9">
+        <f>60*(DEGREES(H57)-INT(DEGREES(H57)))</f>
+        <v>57.999999999999261</v>
+      </c>
+      <c r="H57" s="9">
+        <f>ABS(D57-$D$7)</f>
+        <v>1.2036954074587558</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9">
+        <f>SIN((H63+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.8059794332799115</v>
+      </c>
+      <c r="N57" s="9">
+        <f>(COS((H63+$E$3)/2)/(2*SIN($E$3/2))*I63)^2+((0.5*COS((H63+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H63+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.4393467639575778E-7</v>
+      </c>
+      <c r="O57" s="9">
+        <f>SQRT(N57)</f>
+        <v>4.9389743509736697E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="16">
+        <v>109</v>
+      </c>
+      <c r="C58" s="16">
+        <v>44</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" ref="D58:D62" si="16">RADIANS(B58+C58/60)</f>
+        <v>1.9152079658551109</v>
+      </c>
+      <c r="F58" s="9">
+        <f t="shared" ref="F58:F62" si="17">INT(DEGREES(H58))</f>
+        <v>68</v>
+      </c>
+      <c r="G58" s="9">
+        <f t="shared" ref="G58:G62" si="18">60*(DEGREES(H58)-INT(DEGREES(H58)))</f>
+        <v>57.000000000000171</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" ref="H58:H62" si="19">ABS(D58-$D$7)</f>
+        <v>1.2034045192500902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="16">
+        <v>109</v>
+      </c>
+      <c r="C59" s="16">
+        <v>42</v>
+      </c>
+      <c r="D59" s="9">
+        <f t="shared" si="16"/>
+        <v>1.9146261894377796</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" si="18"/>
+        <v>58.999999999999204</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" si="19"/>
+        <v>1.2039862956674214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16">
+        <v>247</v>
+      </c>
+      <c r="C60" s="16">
+        <v>40</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="16"/>
+        <v>4.3225987807726227</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="G60" s="9">
+        <f t="shared" si="18"/>
+        <v>59.000000000000057</v>
+      </c>
+      <c r="H60" s="9">
+        <f t="shared" si="19"/>
+        <v>1.2039862956674217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16">
+        <v>247</v>
+      </c>
+      <c r="C61" s="16">
+        <v>41</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" si="16"/>
+        <v>4.322889668981289</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="G61" s="9">
+        <f t="shared" si="18"/>
+        <v>1.7053025658242404E-12</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" si="19"/>
+        <v>1.204277183876088</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="16">
+        <v>247</v>
+      </c>
+      <c r="C62" s="16">
+        <v>42</v>
+      </c>
+      <c r="D62" s="9">
+        <f t="shared" si="16"/>
+        <v>4.3231805571899544</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="G62" s="9">
+        <f t="shared" si="18"/>
+        <v>1.0000000000007958</v>
+      </c>
+      <c r="H62" s="9">
+        <f t="shared" si="19"/>
+        <v>1.2045680720847534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9">
+        <f>AVERAGE(H57:H62)</f>
+        <v>1.2039862956674219</v>
+      </c>
+      <c r="I63" s="9">
+        <f>_xlfn.STDEV.P(H57:H62)</f>
+        <v>3.7553506259031696E-4</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="5">
+        <f>546.074*0.000000001</f>
+        <v>5.4607399999999997E-7</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="17">
+        <v>111</v>
+      </c>
+      <c r="C68" s="17">
+        <v>24</v>
+      </c>
+      <c r="D68" s="9">
+        <f>RADIANS(B68+C68/60)</f>
+        <v>1.9442967867216832</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9">
+        <f>INT(DEGREES(H68))</f>
+        <v>67</v>
+      </c>
+      <c r="G68" s="9">
+        <f>60*(DEGREES(H68)-INT(DEGREES(H68)))</f>
+        <v>16.999999999999886</v>
+      </c>
+      <c r="H68" s="9">
+        <f>ABS(D68-$D$7)</f>
+        <v>1.1743156983835179</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9">
+        <f>SIN((H74+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.7930374772723283</v>
+      </c>
+      <c r="N68" s="9">
+        <f>(COS((H74+$E$3)/2)/(2*SIN($E$3/2))*I74)^2+((0.5*COS((H74+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H74+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.3963726854829023E-7</v>
+      </c>
+      <c r="O68" s="9">
+        <f>SQRT(N68)</f>
+        <v>4.8952759733062064E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="17">
+        <v>111</v>
+      </c>
+      <c r="C69" s="17">
+        <v>25.5</v>
+      </c>
+      <c r="D69" s="9">
+        <f t="shared" ref="D69:D73" si="20">RADIANS(B69+C69/60)</f>
+        <v>1.9447331190346817</v>
+      </c>
+      <c r="F69" s="9">
+        <f t="shared" ref="F69:F73" si="21">INT(DEGREES(H69))</f>
+        <v>67</v>
+      </c>
+      <c r="G69" s="9">
+        <f t="shared" ref="G69:G73" si="22">60*(DEGREES(H69)-INT(DEGREES(H69)))</f>
+        <v>15.499999999999545</v>
+      </c>
+      <c r="H69" s="9">
+        <f t="shared" ref="H69:H73" si="23">ABS(D69-$D$7)</f>
+        <v>1.1738793660705193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="17">
+        <v>111</v>
+      </c>
+      <c r="C70" s="17">
+        <v>25</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="20"/>
+        <v>1.944587674930349</v>
+      </c>
+      <c r="F70" s="9">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="G70" s="9">
+        <f t="shared" si="22"/>
+        <v>15.999999999999091</v>
+      </c>
+      <c r="H70" s="9">
+        <f t="shared" si="23"/>
+        <v>1.1740248101748521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="17">
+        <v>245</v>
+      </c>
+      <c r="C71" s="18">
+        <v>59</v>
+      </c>
+      <c r="D71" s="9">
+        <f t="shared" si="20"/>
+        <v>4.2932190716973846</v>
+      </c>
+      <c r="F71" s="9">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="G71" s="9">
+        <f t="shared" si="22"/>
+        <v>17.999999999998977</v>
+      </c>
+      <c r="H71" s="9">
+        <f t="shared" si="23"/>
+        <v>1.1746065865921835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="17">
+        <v>246</v>
+      </c>
+      <c r="C72" s="17">
         <v>0</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="5">
-        <f>ABS(F55-$D$7)</f>
+      <c r="D72" s="9">
+        <f t="shared" si="20"/>
+        <v>4.2935099599060509</v>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="G72" s="9">
+        <f t="shared" si="22"/>
+        <v>19.000000000001478</v>
+      </c>
+      <c r="H72" s="9">
+        <f t="shared" si="23"/>
+        <v>1.1748974748008498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="17">
+        <v>246</v>
+      </c>
+      <c r="C73" s="17">
         <v>0</v>
       </c>
-      <c r="I55" s="5">
-        <f>INT(DEGREES(H55))</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="5">
-        <f>60*(DEGREES(H55)-INT(DEGREES(H55)))</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="5" t="e">
-        <f>SIN((H55+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N55" s="5" t="e">
-        <f>(COS((H55+$E$3)/2)/(2*SIN($E$3/2))*H56)^2+((0.5*COS((H55+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H55+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O55" s="5" t="e">
-        <f>SQRT(N55)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5" t="s">
+      <c r="D73" s="9">
+        <f t="shared" si="20"/>
+        <v>4.2935099599060509</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="G73" s="9">
+        <f t="shared" si="22"/>
+        <v>19.000000000001478</v>
+      </c>
+      <c r="H73" s="9">
+        <f t="shared" si="23"/>
+        <v>1.1748974748008498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9">
+        <f>AVERAGE(H68:H73)</f>
+        <v>1.1744369018037955</v>
+      </c>
+      <c r="I74" s="9">
+        <f>_xlfn.STDEV.P(H68:H73)</f>
+        <v>3.9757677922080519E-4</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="5">
+        <f>576.96*0.000000001</f>
+        <v>5.7696000000000011E-7</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="B79" s="21">
+        <v>112</v>
+      </c>
+      <c r="C79" s="21">
+        <v>8</v>
+      </c>
+      <c r="D79" s="9">
+        <f>RADIANS(B79+C79/60)</f>
+        <v>1.9570958679029751</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9">
+        <f>INT(DEGREES(H79))</f>
+        <v>66</v>
+      </c>
+      <c r="G79" s="9">
+        <f>60*(DEGREES(H79)-INT(DEGREES(H79)))</f>
+        <v>32.999999999998977</v>
+      </c>
+      <c r="H79" s="9">
+        <f>ABS(D79-$D$7)</f>
+        <v>1.161516617202226</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9">
+        <f>SIN((H85+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.7874411048540997</v>
+      </c>
+      <c r="N79" s="9">
+        <f>(COS((H85+$E$3)/2)/(2*SIN($E$3/2))*I85)^2+((0.5*COS((H85+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H85+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.3938143084071727E-7</v>
+      </c>
+      <c r="O79" s="9">
+        <f>SQRT(N79)</f>
+        <v>4.8926621673759296E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
+        <v>112</v>
+      </c>
+      <c r="C80" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" ref="D80:D84" si="24">RADIANS(B80+C80/60)</f>
+        <v>1.9569504237986419</v>
+      </c>
+      <c r="F80" s="9">
+        <f t="shared" ref="F80:F84" si="25">INT(DEGREES(H80))</f>
+        <v>66</v>
+      </c>
+      <c r="G80" s="9">
+        <f t="shared" ref="G80:G84" si="26">60*(DEGREES(H80)-INT(DEGREES(H80)))</f>
+        <v>33.500000000000227</v>
+      </c>
+      <c r="H80" s="9">
+        <f t="shared" ref="H80:H84" si="27">ABS(D80-$D$7)</f>
+        <v>1.1616620613065591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
+        <v>112</v>
+      </c>
+      <c r="C81" s="21">
+        <v>8</v>
+      </c>
+      <c r="D81" s="9">
+        <f t="shared" si="24"/>
+        <v>1.9570958679029751</v>
+      </c>
+      <c r="F81" s="9">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="G81" s="9">
+        <f t="shared" si="26"/>
+        <v>32.999999999998977</v>
+      </c>
+      <c r="H81" s="9">
+        <f t="shared" si="27"/>
+        <v>1.161516617202226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="21">
+        <v>245</v>
+      </c>
+      <c r="C82" s="21">
+        <v>16</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="24"/>
+        <v>4.2807108787247588</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="G82" s="9">
+        <f t="shared" si="26"/>
+        <v>34.999999999999716</v>
+      </c>
+      <c r="H82" s="9">
+        <f t="shared" si="27"/>
+        <v>1.1620983936195577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="21">
+        <v>245</v>
+      </c>
+      <c r="C83" s="21">
+        <v>16</v>
+      </c>
+      <c r="D83" s="9">
+        <f t="shared" si="24"/>
+        <v>4.2807108787247588</v>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="G83" s="9">
+        <f t="shared" si="26"/>
+        <v>34.999999999999716</v>
+      </c>
+      <c r="H83" s="9">
+        <f t="shared" si="27"/>
+        <v>1.1620983936195577</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="21">
+        <v>245</v>
+      </c>
+      <c r="C84" s="21">
+        <v>18</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" si="24"/>
+        <v>4.2812926551420905</v>
+      </c>
+      <c r="F84" s="9">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="G84" s="9">
+        <f t="shared" si="26"/>
+        <v>37.000000000000455</v>
+      </c>
+      <c r="H84" s="9">
+        <f t="shared" si="27"/>
+        <v>1.1626801700368894</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9">
+        <f>AVERAGE(H79:H84)</f>
+        <v>1.1619287088311692</v>
+      </c>
+      <c r="I85" s="9">
+        <f>_xlfn.STDEV.P(H79:H84)</f>
+        <v>4.149336738552634E-4</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="5">
+        <f>578.966*0.000000001</f>
+        <v>5.78966E-7</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N89" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="5">
+      <c r="O89" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="19">
+        <v>112</v>
+      </c>
+      <c r="C90" s="19">
+        <v>12</v>
+      </c>
+      <c r="D90" s="9">
+        <f>RADIANS(B90+C90/60)</f>
+        <v>1.9582594207376378</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9">
+        <f>INT(DEGREES(H90))</f>
+        <v>66</v>
+      </c>
+      <c r="G90" s="9">
+        <f>60*(DEGREES(H90)-INT(DEGREES(H90)))</f>
+        <v>28.999999999999204</v>
+      </c>
+      <c r="H90" s="9">
+        <f>ABS(D90-$D$7)</f>
+        <v>1.1603530643675632</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9">
+        <f>SIN((H96+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.7869606567205927</v>
+      </c>
+      <c r="N90" s="9">
+        <f>(COS((H96+$E$3)/2)/(2*SIN($E$3/2))*I96)^2+((0.5*COS((H96+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H96+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.2957469232441585E-7</v>
+      </c>
+      <c r="O90" s="9">
+        <f>SQRT(N90)</f>
+        <v>4.7913953325144843E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="19">
+        <v>112</v>
+      </c>
+      <c r="C91" s="19">
+        <v>11</v>
+      </c>
+      <c r="D91" s="9">
+        <f t="shared" ref="D91:D95" si="28">RADIANS(B91+C91/60)</f>
+        <v>1.9579685325289722</v>
+      </c>
+      <c r="F91" s="9">
+        <f t="shared" ref="F91:F95" si="29">INT(DEGREES(H91))</f>
+        <v>66</v>
+      </c>
+      <c r="G91" s="9">
+        <f t="shared" ref="G91:G95" si="30">60*(DEGREES(H91)-INT(DEGREES(H91)))</f>
+        <v>29.999999999999147</v>
+      </c>
+      <c r="H91" s="9">
+        <f t="shared" ref="H91:H95" si="31">ABS(D91-$D$7)</f>
+        <v>1.1606439525762289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="19">
+        <v>112</v>
+      </c>
+      <c r="C92" s="19">
+        <v>11</v>
+      </c>
+      <c r="D92" s="9">
+        <f t="shared" si="28"/>
+        <v>1.9579685325289722</v>
+      </c>
+      <c r="F92" s="9">
+        <f t="shared" si="29"/>
+        <v>66</v>
+      </c>
+      <c r="G92" s="9">
+        <f t="shared" si="30"/>
+        <v>29.999999999999147</v>
+      </c>
+      <c r="H92" s="9">
+        <f t="shared" si="31"/>
+        <v>1.1606439525762289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="19">
+        <v>245</v>
+      </c>
+      <c r="C93" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="D93" s="9">
+        <f t="shared" si="28"/>
+        <v>4.2799836582030943</v>
+      </c>
+      <c r="F93" s="9">
+        <f t="shared" si="29"/>
+        <v>66</v>
+      </c>
+      <c r="G93" s="9">
+        <f t="shared" si="30"/>
+        <v>32.499999999999432</v>
+      </c>
+      <c r="H93" s="9">
+        <f t="shared" si="31"/>
+        <v>1.1613711730978933</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="19">
+        <v>245</v>
+      </c>
+      <c r="C94" s="19">
+        <v>13</v>
+      </c>
+      <c r="D94" s="9">
+        <f t="shared" si="28"/>
+        <v>4.2798382140987616</v>
+      </c>
+      <c r="F94" s="9">
+        <f t="shared" si="29"/>
+        <v>66</v>
+      </c>
+      <c r="G94" s="9">
+        <f t="shared" si="30"/>
+        <v>31.999999999999886</v>
+      </c>
+      <c r="H94" s="9">
+        <f t="shared" si="31"/>
+        <v>1.1612257289935606</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="19">
+        <v>245</v>
+      </c>
+      <c r="C95" s="19">
+        <v>12</v>
+      </c>
+      <c r="D95" s="9">
+        <f t="shared" si="28"/>
+        <v>4.2795473258900962</v>
+      </c>
+      <c r="F95" s="9">
+        <f t="shared" si="29"/>
+        <v>66</v>
+      </c>
+      <c r="G95" s="9">
+        <f t="shared" si="30"/>
+        <v>31.000000000000796</v>
+      </c>
+      <c r="H95" s="9">
+        <f t="shared" si="31"/>
+        <v>1.1609348407848952</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9">
+        <f>AVERAGE(H90:H95)</f>
+        <v>1.1608621187327284</v>
+      </c>
+      <c r="I96" s="9">
+        <f>_xlfn.STDEV.P(H90:H95)</f>
+        <v>3.5378113660954768E-4</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="5">
         <f>623.44*0.000000001</f>
         <v>6.2344000000000008E-7</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5" t="s">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C100" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D100" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O100" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5">
-        <f>RADIANS(B61+C61/60)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="5">
-        <f>ABS(F61-$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="5">
-        <f>INT(DEGREES(H61))</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="5">
-        <f>60*(DEGREES(H61)-INT(DEGREES(H61)))</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="5" t="e">
-        <f>SIN((H61+$E$3)/2)/SIN($E$3/2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N61" s="5" t="e">
-        <f>(COS((H61+$E$3)/2)/(2*SIN($E$3/2))*H62)^2+((0.5*COS((H61+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H61+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="5" t="e">
-        <f>SQRT(N61)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="20">
+        <v>113</v>
+      </c>
+      <c r="C101" s="20">
+        <v>56</v>
+      </c>
+      <c r="D101" s="9">
+        <f>RADIANS(B101+C101/60)</f>
+        <v>1.9885117944388728</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9">
+        <f>INT(DEGREES(H101))</f>
+        <v>64</v>
+      </c>
+      <c r="G101" s="9">
+        <f>60*(DEGREES(H101)-INT(DEGREES(H101)))</f>
+        <v>44.999999999999147</v>
+      </c>
+      <c r="H101" s="9">
+        <f>ABS(D101-$D$7)</f>
+        <v>1.1301006906663282</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9">
+        <f>SIN((H107+$E$3)/2)/SIN($E$3/2)</f>
+        <v>1.7729534863108829</v>
+      </c>
+      <c r="N101" s="9">
+        <f>(COS((H107+$E$3)/2)/(2*SIN($E$3/2))*I107)^2+((0.5*COS((H107+$E$3)/2)*SIN($E$3/2)-0.5*COS($E$3/2)*SIN((H107+$E$3)/2))*$E$4/(SIN($E$3/2)^2))^2</f>
+        <v>2.6765436299055128E-7</v>
+      </c>
+      <c r="O101" s="9">
+        <f>SQRT(N101)</f>
+        <v>5.1735322845281571E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="20">
+        <v>113</v>
+      </c>
+      <c r="C102" s="20">
+        <v>55.5</v>
+      </c>
+      <c r="D102" s="9">
+        <f t="shared" ref="D102:D106" si="32">RADIANS(B102+C102/60)</f>
+        <v>1.9883663503345399</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9">
+        <f t="shared" ref="F102:F106" si="33">INT(DEGREES(H102))</f>
+        <v>64</v>
+      </c>
+      <c r="G102" s="9">
+        <f t="shared" ref="G102:G106" si="34">60*(DEGREES(H102)-INT(DEGREES(H102)))</f>
+        <v>45.499999999999545</v>
+      </c>
+      <c r="H102" s="9">
+        <f t="shared" ref="H102:H106" si="35">ABS(D102-$D$7)</f>
+        <v>1.1302461347706612</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="20">
+        <v>113</v>
+      </c>
+      <c r="C103" s="20">
+        <v>58.5</v>
+      </c>
+      <c r="D103" s="9">
+        <f t="shared" si="32"/>
+        <v>1.989239014960537</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="G103" s="9">
+        <f t="shared" si="34"/>
+        <v>42.499999999999716</v>
+      </c>
+      <c r="H103" s="9">
+        <f t="shared" si="35"/>
+        <v>1.129373470144664</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="20">
+        <v>243</v>
+      </c>
+      <c r="C104" s="20">
+        <v>25</v>
+      </c>
+      <c r="D104" s="9">
+        <f t="shared" si="32"/>
+        <v>4.2484222875628639</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="G104" s="9">
+        <f t="shared" si="34"/>
+        <v>44.000000000000909</v>
+      </c>
+      <c r="H104" s="9">
+        <f t="shared" si="35"/>
+        <v>1.1298098024576628</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="20">
+        <v>243</v>
+      </c>
+      <c r="C105" s="20">
+        <v>29</v>
+      </c>
+      <c r="D105" s="9">
+        <f t="shared" si="32"/>
+        <v>4.2495858403975264</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="G105" s="9">
+        <f t="shared" si="34"/>
+        <v>47.999999999998977</v>
+      </c>
+      <c r="H105" s="9">
+        <f t="shared" si="35"/>
+        <v>1.1309733552923253</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="20">
+        <v>243</v>
+      </c>
+      <c r="C106" s="20">
+        <v>29</v>
+      </c>
+      <c r="D106" s="9">
+        <f t="shared" si="32"/>
+        <v>4.2495858403975264</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="G106" s="9">
+        <f t="shared" si="34"/>
+        <v>47.999999999998977</v>
+      </c>
+      <c r="H106" s="9">
+        <f t="shared" si="35"/>
+        <v>1.1309733552923253</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9">
+        <f>AVERAGE(H101:H106)</f>
+        <v>1.1302461347706612</v>
+      </c>
+      <c r="I107" s="9">
+        <f>_xlfn.STDEV.P(H101:H106)</f>
+        <v>5.8177641733135144E-4</v>
+      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3819,10 +5897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,7 +5912,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3842,529 +5920,513 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <f>404.656*0.000000001</f>
         <v>4.0465600000000002E-7</v>
       </c>
-      <c r="C6" s="5" t="e">
+      <c r="C6" s="5">
         <f>n!M13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="5" t="e">
+        <v>1.8433563805323061</v>
+      </c>
+      <c r="D6" s="5">
         <f>n!O13</f>
-        <v>#DIV/0!</v>
+        <v>5.2264967905568324E-4</v>
       </c>
       <c r="E6">
         <f>B6^-2</f>
         <v>6107001568290.5088</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f>C6^-2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>0.29429398579499583</v>
+      </c>
+      <c r="G6">
         <f>D6^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" t="e">
+        <v>2.7316268701700868E-7</v>
+      </c>
+      <c r="H6">
         <f>G6*E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>1668204.9580113215</v>
+      </c>
+      <c r="I6">
         <f>G6*E6^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>1.0187730294805142E+19</v>
+      </c>
+      <c r="J6">
         <f>G6*F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>8.0390135932706446E-8</v>
+      </c>
+      <c r="K6">
         <f>G6*E6*F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" t="e">
-        <f>(G6*$I$15-H6*$H$15)^2*1/G6^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" t="e">
-        <f>(H6*$G$15-G6*$H$15)^2*1/G6^2</f>
-        <v>#DIV/0!</v>
+        <v>490942.68621612544</v>
+      </c>
+      <c r="L6">
+        <f>(G6*$I$14-H6*$H$14)^2*1/G6^2</f>
+        <v>1.4983928781634702E+38</v>
+      </c>
+      <c r="M6">
+        <f>(H6*$G$14-G6*$H$14)^2*1/G6^2</f>
+        <v>14268943103856.348</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5">
         <f>407.783*0.000000001</f>
         <v>4.0778300000000005E-7</v>
       </c>
-      <c r="C7" s="5" t="e">
-        <f>n!M19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="5" t="e">
-        <f>n!O19</f>
-        <v>#DIV/0!</v>
+      <c r="C7" s="5">
+        <f>n!M24</f>
+        <v>1.841280591554028</v>
+      </c>
+      <c r="D7" s="5">
+        <f>n!O24</f>
+        <v>5.0679645330482218E-4</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E14" si="0">B7^-2</f>
+        <f t="shared" ref="E7:E13" si="0">B7^-2</f>
         <v>6013700107689.0146</v>
       </c>
-      <c r="F7" s="5" t="e">
-        <f t="shared" ref="F7:F14" si="1">D7^-2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="5" t="e">
-        <f t="shared" ref="G7:G14" si="2">D7^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="5" t="e">
-        <f t="shared" ref="H7:H14" si="3">G7*E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="5" t="e">
-        <f t="shared" ref="I7:I14" si="4">G7*E7^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="5" t="e">
-        <f t="shared" ref="J7:J14" si="5">G7*F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="5" t="e">
-        <f t="shared" ref="K7:K14" si="6">G7*E7*F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="5" t="e">
-        <f t="shared" ref="L7:L14" si="7">(G7*$I$15-H7*$H$15)^2*1/G7^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="5" t="e">
-        <f t="shared" ref="M7:M14" si="8">(H7*$G$15-G7*$H$15)^2*1/G7^2</f>
-        <v>#DIV/0!</v>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F13" si="1">D7^-2</f>
+        <v>3893434.4399053673</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:G13" si="2">D7^2</f>
+        <v>2.5684264508234682E-7</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7:H13" si="3">G7*E7</f>
+        <v>1544574.6423908405</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ref="I7:I13" si="4">G7*E7^2</f>
+        <v>9.2886086932795187E+18</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7:J13" si="5">G7*F7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ref="K7:K13" si="6">G7*E7*F7</f>
+        <v>6013700107689.0146</v>
+      </c>
+      <c r="L7" s="5">
+        <f>(G7*$I$14-H7*$H$14)^2*1/G7^2</f>
+        <v>1.3123563194192401E+38</v>
+      </c>
+      <c r="M7" s="5">
+        <f>(H7*$G$14-G7*$H$14)^2*1/G7^2</f>
+        <v>12896442354047.979</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5">
         <f>0.000000435833</f>
         <v>4.3583299999999998E-7</v>
       </c>
-      <c r="C8" s="5" t="e">
-        <f>n!M25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="5" t="e">
-        <f>n!O25</f>
-        <v>#DIV/0!</v>
+      <c r="C8" s="5">
+        <f>n!M35</f>
+        <v>1.8263380485735974</v>
+      </c>
+      <c r="D8" s="5">
+        <f>n!O35</f>
+        <v>4.9616239760927241E-4</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>5264532106940.7314</v>
       </c>
-      <c r="F8" s="5" t="e">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="5" t="e">
+        <v>4062115.8477125377</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="5" t="e">
+        <v>2.4617712480138173E-7</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="5" t="e">
+        <v>1296007.3775112296</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="5" t="e">
+        <v>6.8228724497399255E+18</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="5" t="e">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5264532106940.7314</v>
+      </c>
+      <c r="L8" s="5">
+        <f>(G8*$I$14-H8*$H$14)^2*1/G8^2</f>
+        <v>2.6543406643511064E+37</v>
+      </c>
+      <c r="M8" s="5">
+        <f>(H8*$G$14-G8*$H$14)^2*1/G8^2</f>
+        <v>4391325644443.2949</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <f>491.607*0.000000001</f>
         <v>4.9160700000000007E-7</v>
       </c>
-      <c r="C9" s="5" t="e">
-        <f>n!M31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="5" t="e">
-        <f>n!O31</f>
-        <v>#DIV/0!</v>
+      <c r="C9" s="5">
+        <f>n!M46</f>
+        <v>1.8059794332799115</v>
+      </c>
+      <c r="D9" s="5">
+        <f>n!O46</f>
+        <v>4.9389743509736697E-4</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>4137746534664.793</v>
       </c>
-      <c r="F9" s="5" t="e">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="5" t="e">
+        <v>4099458.1614038642</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="5" t="e">
+        <v>2.4393467639575784E-7</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="5" t="e">
+        <v>1009339.8619411247</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="5" t="e">
+        <v>4.176392516045929E+18</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="5" t="e">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4137746534664.793</v>
+      </c>
+      <c r="L9" s="5">
+        <f>(G9*$I$14-H9*$H$14)^2*1/G9^2</f>
+        <v>1.8741716406008508E+37</v>
+      </c>
+      <c r="M9" s="5">
+        <f>(H9*$G$14-G9*$H$14)^2*1/G9^2</f>
+        <v>23693258087.863232</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
-        <f>497.037*0.000000001</f>
-        <v>4.9703700000000003E-7</v>
-      </c>
-      <c r="C10" s="5" t="e">
-        <f>n!M37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="5" t="e">
-        <f>n!O37</f>
-        <v>#DIV/0!</v>
+        <f>546.074*0.000000001</f>
+        <v>5.4607399999999997E-7</v>
+      </c>
+      <c r="C10" s="5">
+        <f>n!M68</f>
+        <v>1.7930374772723283</v>
+      </c>
+      <c r="D10" s="5">
+        <f>n!O68</f>
+        <v>4.8952759733062064E-4</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>4047832764251.9629</v>
-      </c>
-      <c r="F10" s="5" t="e">
+        <v>3353489892609.0767</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="5" t="e">
+        <v>4172973.6199129056</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="5" t="e">
+        <v>2.3963726854829029E-7</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="5" t="e">
+        <v>803621.15796913847</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="5" t="e">
+        <v>2.6949354307363082E+18</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="5" t="e">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3353489892609.0767</v>
+      </c>
+      <c r="L10" s="5">
+        <f>(G10*$I$14-H10*$H$14)^2*1/G10^2</f>
+        <v>1.1942560495337309E+38</v>
+      </c>
+      <c r="M10" s="5">
+        <f>(H10*$G$14-G10*$H$14)^2*1/G10^2</f>
+        <v>2956984844208.9995</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5">
-        <f>546.074*0.000000001</f>
-        <v>5.4607399999999997E-7</v>
-      </c>
-      <c r="C11" s="5" t="e">
-        <f>n!M43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="5" t="e">
-        <f>n!O43</f>
-        <v>#DIV/0!</v>
+        <f>576.96*0.000000001</f>
+        <v>5.7696000000000011E-7</v>
+      </c>
+      <c r="C11" s="5">
+        <f>n!M79</f>
+        <v>1.7874411048540997</v>
+      </c>
+      <c r="D11" s="5">
+        <f>n!O79</f>
+        <v>4.8926621673759296E-4</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>3353489892609.0767</v>
-      </c>
-      <c r="F11" s="5" t="e">
+        <v>3004059912471.0176</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="5" t="e">
+        <v>4177433.4646090115</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="5" t="e">
+        <v>2.3938143084071727E-7</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="5" t="e">
+        <v>719116.16017855203</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="5" t="e">
+        <v>2.1602680292024753E+18</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="5" t="e">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3004059912471.0176</v>
+      </c>
+      <c r="L11" s="5">
+        <f>(G11*$I$14-H11*$H$14)^2*1/G11^2</f>
+        <v>1.9233357884758575E+38</v>
+      </c>
+      <c r="M11" s="5">
+        <f>(H11*$G$14-G11*$H$14)^2*1/G11^2</f>
+        <v>5842750989377.0771</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5">
-        <f>576.96*0.000000001</f>
-        <v>5.7696000000000011E-7</v>
-      </c>
-      <c r="C12" s="5" t="e">
-        <f>n!M49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="5" t="e">
-        <f>n!O49</f>
-        <v>#DIV/0!</v>
+        <f>578.966*0.000000001</f>
+        <v>5.78966E-7</v>
+      </c>
+      <c r="C12" s="5">
+        <f>n!M90</f>
+        <v>1.7869606567205927</v>
+      </c>
+      <c r="D12" s="5">
+        <f>n!O90</f>
+        <v>4.7913953325144843E-4</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>3004059912471.0176</v>
-      </c>
-      <c r="F12" s="5" t="e">
+        <v>2983279056602.104</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="5" t="e">
+        <v>4355880.824123607</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="5" t="e">
+        <v>2.2957469232441585E-7</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="5" t="e">
+        <v>684885.37153730157</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="5" t="e">
+        <v>2.0432041850803827E+18</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="5" t="e">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2983279056602.104</v>
+      </c>
+      <c r="L12" s="5">
+        <f>(G12*$I$14-H12*$H$14)^2*1/G12^2</f>
+        <v>1.9721416827365314E+38</v>
+      </c>
+      <c r="M12" s="5">
+        <f>(H12*$G$14-G12*$H$14)^2*1/G12^2</f>
+        <v>6045031037291.0391</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
-        <f>578.966*0.000000001</f>
-        <v>5.78966E-7</v>
-      </c>
-      <c r="C13" s="5" t="e">
-        <f>n!M55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="5" t="e">
-        <f>n!O55</f>
-        <v>#DIV/0!</v>
+        <f>623.44*0.000000001</f>
+        <v>6.2344000000000008E-7</v>
+      </c>
+      <c r="C13" s="5">
+        <f>n!M101</f>
+        <v>1.7729534863108829</v>
+      </c>
+      <c r="D13" s="5">
+        <f>n!O101</f>
+        <v>5.1735322845281571E-4</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>2983279056602.104</v>
-      </c>
-      <c r="F13" s="5" t="e">
+        <v>2572827526254.4072</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="5" t="e">
+        <v>3736161.7753090831</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="5" t="e">
+        <v>2.6765436299055134E-7</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="5" t="e">
+        <v>688628.51262417936</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="5" t="e">
+        <v>1.7717223926431194E+18</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="5" t="e">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2572827526254.4072</v>
+      </c>
+      <c r="L13" s="5">
+        <f>(G13*$I$14-H13*$H$14)^2*1/G13^2</f>
+        <v>3.0614467824881797E+38</v>
+      </c>
+      <c r="M13" s="5">
+        <f>(H13*$G$14-G13*$H$14)^2*1/G13^2</f>
+        <v>10745779022173.605</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
-        <f>623.44*0.000000001</f>
-        <v>6.2344000000000008E-7</v>
-      </c>
-      <c r="C14" s="5" t="e">
-        <f>n!M61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="5" t="e">
-        <f>n!O61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>2572827526254.4072</v>
-      </c>
-      <c r="F14" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="5" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM(G6:G13)</f>
+        <v>1.9963648880004699E-6</v>
+      </c>
+      <c r="H14" s="2">
+        <f>SUM(H6:H13)</f>
+        <v>8414378.0421636887</v>
+      </c>
+      <c r="I14" s="2">
+        <f>SUM(I6:I13)</f>
+        <v>3.9145733991532798E+19</v>
+      </c>
+      <c r="J14" s="2">
+        <f>SUM(J6:J13)</f>
+        <v>7.0000000803901354</v>
+      </c>
+      <c r="K14" s="2">
+        <f>SUM(K6:K13)</f>
+        <v>27329635628173.832</v>
+      </c>
+      <c r="L14" s="2">
+        <f>SUM(L6:L13)</f>
+        <v>1.1414780731312206E+39</v>
+      </c>
+      <c r="M14" s="2">
+        <f>SUM(M6:M13)</f>
+        <v>57170950253486.203</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4372,37 +6434,6 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2" t="e">
-        <f>SUM(G6:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="2" t="e">
-        <f t="shared" ref="H15:M15" si="9">SUM(H6:H14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -4411,175 +6442,175 @@
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5">
+        <f>G14*I14-H14^2</f>
+        <v>7347411019256.125</v>
+      </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="e">
-        <f>G15*I15-H15^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>6</v>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5">
+        <f>(I14*J14-H14*K14)/C17</f>
+        <v>5996432.6266969489</v>
+      </c>
+      <c r="D19" s="5">
+        <f>SQRT(L14/C17^2)</f>
+        <v>4598322.7598754121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="5" t="e">
-        <f>(I15*J15-H15*K15)/C18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="5" t="e">
-        <f>SQRT(L15/C18^2)</f>
-        <v>#DIV/0!</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="5">
+        <f>(G14*K14-H14*J14)/C17</f>
+        <v>-5.907825205735361E-7</v>
+      </c>
+      <c r="D20" s="5">
+        <f>SQRT(M14/C17^2)</f>
+        <v>1.0290900286708866E-6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5" t="e">
-        <f>(G15*K15-H15*J15)/C18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="5" t="e">
-        <f>SQRT(M15/C18^2)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5">
+        <f>PEARSON(E6:E13,F6:F13)</f>
+        <v>-0.56360731021799837</v>
+      </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="5" t="e">
-        <f>PEARSON(E6:E14,F6:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>56</v>
+      <c r="B26" s="5">
+        <f>$C$19+$C$20*E6</f>
+        <v>2388522.8470357442</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="5" t="e">
-        <f>$C$20+$C$21*E6</f>
-        <v>#DIV/0!</v>
+      <c r="B27" s="5">
+        <f>$C$19+$C$20*E7</f>
+        <v>2443643.7191030872</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="5" t="e">
-        <f t="shared" ref="B28:B35" si="10">$C$20+$C$21*E7</f>
-        <v>#DIV/0!</v>
+      <c r="B28" s="5">
+        <f>$C$19+$C$20*E8</f>
+        <v>2886239.0789181949</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="B29" s="5">
+        <f>$C$19+$C$20*E9</f>
+        <v>3551924.2994532683</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <f>$C$19+$C$20*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="B31" s="5">
+        <f>$C$19+$C$20*E10</f>
+        <v>4015249.4152234816</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="B32" s="5">
+        <f>$C$19+$C$20*E11</f>
+        <v>4221686.5396534046</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="B33" s="5">
+        <f>$C$19+$C$20*E12</f>
+        <v>4233963.5060633169</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="B34" s="5">
+        <f>$C$19+$C$20*E13</f>
+        <v>4476451.0957353944</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="e">
-        <f>$C$20+$C$21*E14</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
@@ -4608,12 +6639,12 @@
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
@@ -4641,11 +6672,9 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
@@ -4663,9 +6692,9 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
@@ -4678,10 +6707,6 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
